--- a/BackTest/2020-01-15 BackTest TRV.xlsx
+++ b/BackTest/2020-01-15 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-238590.0423000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-294003.6723</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-293961.6723</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-293961.6723</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-311441.8739</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-256612.1874749454</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-190944.6480625245</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-209529.7542625245</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-38738.26266252453</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-38948.26266252453</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-33967.32761458476</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>116615.2296854153</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>95457.63208541524</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>94054.62718541524</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-367607.130066172</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-368761.350466172</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-368720.350466172</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-786238.6487661721</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-786197.6487661721</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-794316.3132874916</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-795929.216513298</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-803213.507213298</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-876677.652913298</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-876636.652913298</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-887199.037913298</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-887199.037913298</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-887104.324113298</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-907333.8758132979</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-840720.4200132979</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -9229,10 +9229,14 @@
         <v>-3456386.637003287</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J268" t="n">
+        <v>11.35</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9265,8 +9269,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9305,19 @@
         <v>-3456386.637003287</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="J270" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9379,17 @@
         <v>-3462252.239003287</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9422,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9455,17 @@
         <v>-3535263.689303287</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9498,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9535,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9572,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9609,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9646,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9679,17 @@
         <v>-3582715.342603287</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>11.28</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9718,17 @@
         <v>-3732715.342603287</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>11.29</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9757,17 @@
         <v>-3732670.342603287</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>11.27</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +9800,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9833,17 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +9876,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9909,17 @@
         <v>-3732166.080203287</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9948,17 @@
         <v>-3768696.397003287</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>11.36</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9987,17 @@
         <v>-3768651.397003287</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10026,17 @@
         <v>-3768825.026303288</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>11.36</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10065,17 @@
         <v>-3768780.026303288</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10104,17 @@
         <v>-3789603.032803288</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11.36</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,15 +10143,17 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>11.3</v>
       </c>
-      <c r="J292" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,15 +10182,15 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>11.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L293" t="n">
@@ -10097,17 +10221,15 @@
         <v>-3725982.346503288</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>11.29</v>
       </c>
-      <c r="J294" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10138,11 +10260,17 @@
         <v>-3725983.304203288</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10171,15 +10299,17 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>11.29</v>
       </c>
-      <c r="J296" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10208,17 +10338,15 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>11.28</v>
       </c>
-      <c r="J297" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
@@ -10249,17 +10377,15 @@
         <v>-3747950.951403288</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>11.28</v>
       </c>
-      <c r="J298" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L298" t="n">
@@ -10290,17 +10416,15 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>11.3</v>
       </c>
-      <c r="J299" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10331,14 +10455,12 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>11.36</v>
       </c>
-      <c r="J300" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10372,14 +10494,12 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>11.36</v>
       </c>
-      <c r="J301" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,14 +10533,12 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>11.37</v>
       </c>
-      <c r="J302" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,14 +10572,12 @@
         <v>-3686211.108839379</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>11.37</v>
       </c>
-      <c r="J303" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10495,14 +10611,12 @@
         <v>-3682080.981439379</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>11.38</v>
       </c>
-      <c r="J304" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,14 +10650,12 @@
         <v>-3682125.854039379</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>11.39</v>
       </c>
-      <c r="J305" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10577,14 +10689,12 @@
         <v>-3691500.844139379</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>11.38</v>
       </c>
-      <c r="J306" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10618,12 +10728,12 @@
         <v>-3690831.834239379</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10657,14 +10767,12 @@
         <v>-3690982.834239379</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>11.38</v>
       </c>
-      <c r="J308" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10698,14 +10806,12 @@
         <v>-3690938.834239379</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>11.28</v>
       </c>
-      <c r="J309" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,14 +10845,12 @@
         <v>-3690987.834239379</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>11.38</v>
       </c>
-      <c r="J310" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10780,14 +10884,12 @@
         <v>-3690987.834239379</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>11.28</v>
       </c>
-      <c r="J311" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,14 +10923,12 @@
         <v>-3717827.135039379</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>11.28</v>
       </c>
-      <c r="J312" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10862,14 +10962,12 @@
         <v>-3717783.135039379</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>11.27</v>
       </c>
-      <c r="J313" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10903,14 +11001,12 @@
         <v>-3779434.977639379</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>11.38</v>
       </c>
-      <c r="J314" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,14 +11040,12 @@
         <v>-3731304.763339379</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>11.27</v>
       </c>
-      <c r="J315" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,14 +11079,12 @@
         <v>-3731260.763339379</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>11.39</v>
       </c>
-      <c r="J316" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,14 +11118,12 @@
         <v>-3703176.403339379</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>11.41</v>
       </c>
-      <c r="J317" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11067,14 +11157,12 @@
         <v>-3703132.403339379</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>11.43</v>
       </c>
-      <c r="J318" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,14 +11196,12 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>11.45</v>
       </c>
-      <c r="J319" t="n">
-        <v>11.29</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11149,12 +11235,12 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11188,12 +11274,12 @@
         <v>-3683101.540539379</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11227,12 +11313,12 @@
         <v>-3683057.540539379</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11266,12 +11352,12 @@
         <v>-3596028.345938423</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11305,12 +11391,12 @@
         <v>-3633587.646238423</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11344,12 +11430,12 @@
         <v>-3823851.001238423</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11383,12 +11469,12 @@
         <v>-3818296.886308981</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11422,12 +11508,12 @@
         <v>-3818746.886308981</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11461,12 +11547,12 @@
         <v>-3818702.886308981</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11500,12 +11586,12 @@
         <v>-3819103.11940898</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11539,12 +11625,12 @@
         <v>-3869103.11940898</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11578,12 +11664,12 @@
         <v>-3952511.447508981</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11617,12 +11703,12 @@
         <v>-3952467.447508981</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11656,12 +11742,12 @@
         <v>-3960661.77870898</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>11.29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11673,6 +11759,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest TRV.xlsx
+++ b/BackTest/2020-01-15 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1540,7 +1540,7 @@
         <v>-546924.1254779156</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-574908.8074779157</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-603209.1374779156</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-606323.0117779156</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-606273.0117779156</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-607271.0117779156</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-610401.2473779157</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-610359.2473779157</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-609959.4613779156</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-699483.2274287354</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-668401.3650287354</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-767057.9806287354</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-694395.6030873663</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-723293.7283873663</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-689204.8253873662</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-689163.8253873662</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-597031.1560873663</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-477838.1941873663</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-584614.1688873663</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-190944.6480625245</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-209529.7542625245</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-38738.26266252453</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-38948.26266252453</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-33967.32761458476</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>116615.2296854153</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>95457.63208541524</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>94054.62718541524</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-367607.130066172</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-368761.350466172</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-368720.350466172</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-786238.6487661721</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-786197.6487661721</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-794316.3132874916</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-795929.216513298</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-799961.474613298</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-803213.507213298</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-876677.652913298</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-876636.652913298</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-887199.037913298</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-887199.037913298</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-887104.324113298</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-907333.8758132979</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-840720.4200132979</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2017430.710003288</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2017480.710003288</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2027067.436503288</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3147147.114003288</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3028050.075903288</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3028103.364903288</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3147398.707403288</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-3147354.707403288</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-3148749.707403288</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9229,14 +9229,10 @@
         <v>-3456386.637003287</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J268" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
@@ -9269,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9305,19 +9295,11 @@
         <v>-3456386.637003287</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="J270" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9379,17 +9361,11 @@
         <v>-3462252.239003287</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9455,17 +9427,11 @@
         <v>-3535263.689303287</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9679,17 +9625,11 @@
         <v>-3582715.342603287</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>11.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9718,17 +9658,11 @@
         <v>-3732715.342603287</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>11.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9757,17 +9691,11 @@
         <v>-3732670.342603287</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>11.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9800,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9833,17 +9757,11 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9876,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9909,17 +9823,11 @@
         <v>-3732166.080203287</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9948,17 +9856,11 @@
         <v>-3768696.397003287</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9987,17 +9889,11 @@
         <v>-3768651.397003287</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10026,17 +9922,11 @@
         <v>-3768825.026303288</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10065,17 +9955,11 @@
         <v>-3768780.026303288</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10104,17 +9988,11 @@
         <v>-3789603.032803288</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10143,17 +10021,11 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10182,17 +10054,11 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>11.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10221,17 +10087,11 @@
         <v>-3725982.346503288</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>11.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10260,17 +10120,11 @@
         <v>-3725983.304203288</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10299,17 +10153,11 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>11.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10338,17 +10186,11 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>11.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10382,12 +10224,10 @@
       <c r="I298" t="n">
         <v>11.28</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10421,10 +10261,12 @@
       <c r="I299" t="n">
         <v>11.3</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10455,15 +10297,15 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10494,17 +10336,11 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10533,17 +10369,11 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>11.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10572,17 +10402,11 @@
         <v>-3686211.108839379</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10611,17 +10435,11 @@
         <v>-3682080.981439379</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10650,17 +10468,11 @@
         <v>-3682125.854039379</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>11.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10689,17 +10501,11 @@
         <v>-3691500.844139379</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>11.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10736,7 +10542,7 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -11196,11 +11002,9 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>11.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11235,11 +11039,9 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11274,11 +11076,9 @@
         <v>-3683101.540539379</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11313,11 +11113,9 @@
         <v>-3683057.540539379</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>11.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11352,11 +11150,9 @@
         <v>-3596028.345938423</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>11.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11391,11 +11187,9 @@
         <v>-3633587.646238423</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11430,11 +11224,9 @@
         <v>-3823851.001238423</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -11469,11 +11261,9 @@
         <v>-3818296.886308981</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>11.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11508,11 +11298,9 @@
         <v>-3818746.886308981</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>11.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -11547,11 +11335,9 @@
         <v>-3818702.886308981</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>11.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -11586,11 +11372,9 @@
         <v>-3819103.11940898</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>11.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -11625,11 +11409,9 @@
         <v>-3869103.11940898</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -11664,11 +11446,9 @@
         <v>-3952511.447508981</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>11.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -11703,11 +11483,9 @@
         <v>-3952467.447508981</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -11742,11 +11520,9 @@
         <v>-3960661.77870898</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>11.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11759,6 +11535,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest TRV.xlsx
+++ b/BackTest/2020-01-15 BackTest TRV.xlsx
@@ -1540,7 +1540,7 @@
         <v>-546924.1254779156</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-574958.8074779157</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-574908.8074779157</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-603209.1374779156</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-606323.0117779156</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-606273.0117779156</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-607271.0117779156</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-610401.2473779157</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-610359.2473779157</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-611191.1853779156</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-609959.4613779156</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-699483.2274287354</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-668401.3650287354</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-662746.8110287354</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-767057.9806287354</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-694395.6030873663</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-723293.7283873663</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-689204.8253873662</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-689163.8253873662</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-597031.1560873663</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-477838.1941873663</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-584614.1688873663</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-294017.7003997872</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-256551.5483873663</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-256612.1874749454</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-38554.42226252452</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-52132.33966252452</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-43211.47746252452</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-58606.02296252452</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-190944.6480625245</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-209529.7542625245</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-38738.26266252453</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-38948.26266252453</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-33967.32761458476</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-37638.87471458476</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>116615.2296854153</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>148617.5397854153</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>95457.63208541524</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>94054.62718541524</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-310850.1750145847</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2017430.710003288</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2017480.710003288</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2017530.710003288</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2027067.436503288</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3147147.114003288</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3028050.075903288</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3028103.364903288</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3147398.707403288</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-3147354.707403288</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-3148749.707403288</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9625,10 +9625,14 @@
         <v>-3582715.342603287</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="J280" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
@@ -9658,11 +9662,19 @@
         <v>-3732715.342603287</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J281" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9703,19 @@
         <v>-3732670.342603287</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="J282" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9744,19 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J283" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9785,19 @@
         <v>-3751203.342603287</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J284" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9826,19 @@
         <v>-3732210.520203287</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J285" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9867,19 @@
         <v>-3732166.080203287</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="J286" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9908,19 @@
         <v>-3768696.397003287</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J287" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9949,19 @@
         <v>-3768651.397003287</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9990,19 @@
         <v>-3768825.026303288</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J289" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10031,19 @@
         <v>-3768780.026303288</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10072,19 @@
         <v>-3789603.032803288</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J291" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10113,19 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J292" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10154,19 @@
         <v>-3841410.460203288</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J293" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10195,19 @@
         <v>-3725982.346503288</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J294" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10236,19 @@
         <v>-3725983.304203288</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J295" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10277,19 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="J296" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10318,19 @@
         <v>-3753292.444603288</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="J297" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10227,7 +10367,11 @@
       <c r="J298" t="n">
         <v>11.28</v>
       </c>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10266,7 +10410,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10297,15 +10441,17 @@
         <v>-3686299.108839379</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11.36</v>
+      </c>
       <c r="J300" t="n">
         <v>11.28</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L300" t="n">
@@ -10336,11 +10482,19 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="J301" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10369,11 +10523,19 @@
         <v>-3686255.108839379</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J302" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +10564,19 @@
         <v>-3686211.108839379</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="J303" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +10605,19 @@
         <v>-3682080.981439379</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J304" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10468,11 +10646,19 @@
         <v>-3682125.854039379</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="J305" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10501,11 +10687,19 @@
         <v>-3691500.844139379</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="J306" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10539,10 +10733,12 @@
       <c r="I307" t="n">
         <v>11.37</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10578,7 +10774,9 @@
       <c r="I308" t="n">
         <v>11.38</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10617,7 +10815,9 @@
       <c r="I309" t="n">
         <v>11.28</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10656,7 +10856,9 @@
       <c r="I310" t="n">
         <v>11.38</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,7 +10897,9 @@
       <c r="I311" t="n">
         <v>11.28</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,7 +10938,9 @@
       <c r="I312" t="n">
         <v>11.28</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10773,7 +10979,9 @@
       <c r="I313" t="n">
         <v>11.27</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10812,7 +11020,9 @@
       <c r="I314" t="n">
         <v>11.38</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10851,7 +11061,9 @@
       <c r="I315" t="n">
         <v>11.27</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10890,7 +11102,9 @@
       <c r="I316" t="n">
         <v>11.39</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10929,7 +11143,9 @@
       <c r="I317" t="n">
         <v>11.41</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,7 +11184,9 @@
       <c r="I318" t="n">
         <v>11.43</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11002,10 +11220,14 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,10 +11261,14 @@
         <v>-3664265.540539379</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,10 +11302,14 @@
         <v>-3683101.540539379</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J321" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,10 +11343,14 @@
         <v>-3683057.540539379</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="J322" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,10 +11384,14 @@
         <v>-3596028.345938423</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="J323" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,7 +11428,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11227,7 +11467,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11264,7 +11506,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11301,7 +11545,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,7 +11584,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,7 +11623,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,7 +11662,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11449,7 +11701,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11486,7 +11740,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,7 +11779,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>11.28</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
